--- a/Analyses/2017-June_Analyses/2017-07-04_Proteins-of-interest->2x-annotated.xlsx
+++ b/Analyses/2017-June_Analyses/2017-07-04_Proteins-of-interest->2x-annotated.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="1319">
   <si>
     <t>comp101435_c0_seq1</t>
   </si>
@@ -3921,30 +3921,6 @@
     <t>Mitochondrial activity; Stress response</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Inhibits cell growth rate and cell cycle. Induces CDKN1A expression as well as TGF-beta expression. Mediates the inhibitory growth effect of EGR1 (By similarity). EGR1 (Early growth response protein 1) is a transcriptional regulator (PubMed:20121949). Recognizes and binds to the DNA sequence 5'-GCG(T/G)GGGCG-3'(EGR-site) in the promoter region of target genes (By similarity). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Binds double-stranded target DNA, irrespective of the cytosine methylation status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>). Regulates the transcription of numerous target genes, and thereby plays an important role in regulating the response to growth factors, DNA damage, and ischemia. Plays a role in the regulation of cell survival, proliferation and cell death. Activates expression of p53/TP53 and TGFB1, and thereby helps prevent tumor formation. Required for normal progress through mitosis and normal proliferation of hepatocytes after partial hepatectomy. Mediates responses to ischemia and hypoxia; regulates the expression of proteins such as IL1B and CXCL2 that are involved in inflammatory processes and development of tissue damage after ischemia. Regulates biosynthesis of luteinizing hormone (LHB) in the pituitary (By similarity)</t>
-    </r>
-  </si>
-  <si>
     <t>Cell growth and cycle inhibition</t>
   </si>
   <si>
@@ -4133,6 +4109,33 @@
   <si>
     <t xml:space="preserve">Stress Response? </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inhibits cell growth rate and cell cycle. Induces CDKN1A expression as well as TGF-beta expression. Mediates the inhibitory growth effect of EGR1 (By similarity). EGR1 (Early growth response protein 1) is a transcriptional regulator (PubMed:20121949). Recognizes and binds to the DNA sequence 5'-GCG(T/G)GGGCG-3'(EGR-site) in the promoter region of target genes (By similarity). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Binds double-stranded target DNA, irrespective of the cytosine methylation status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Regulates the transcription of numerous target genes, and thereby plays an important role in regulating the response to growth factors, DNA damage, and ischemia. Plays a role in the regulation of cell survival, proliferation and cell death. Activates expression of p53/TP53 and TGFB1, and thereby helps prevent tumor formation. Required for normal progress through mitosis and normal proliferation of hepatocytes after partial hepatectomy. Mediates responses to ischemia and hypoxia; regulates the expression of proteins such as IL1B and CXCL2 that are involved in inflammatory processes and development of tissue damage after ischemia. Regulates biosynthesis of luteinizing hormone (LHB) in the pituitary (By similarity)</t>
+    </r>
+  </si>
+  <si>
+    <t>Lipid Metabolism- BACTERIA</t>
+  </si>
 </sst>
 </file>
 
@@ -4142,7 +4145,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4219,6 +4222,19 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4237,7 +4253,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="543">
+  <cellStyleXfs count="545">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4781,8 +4797,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4818,8 +4836,24 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="543">
+  <cellStyles count="545">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -5139,6 +5173,7 @@
     <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -5362,6 +5397,7 @@
     <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -18105,27 +18141,27 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:W173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="960" activePane="bottomLeft"/>
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="960" topLeftCell="A102" activePane="bottomLeft"/>
+      <selection activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.5" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="27" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="43.83203125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="68.1640625" customWidth="1"/>
-    <col min="9" max="9" width="60" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="152.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="14" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="60" customWidth="1"/>
+    <col min="10" max="10" width="152.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
     <col min="14" max="14" width="12.83203125" customWidth="1"/>
     <col min="15" max="16" width="10.83203125" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
@@ -18138,25 +18174,25 @@
         <v>1033</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1037</v>
@@ -18202,26 +18238,26 @@
       <c r="A2" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C2" s="17">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" s="6">
         <v>6.0000000000000006E-67</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D2" s="17">
-        <v>5</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>1315</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>17</v>
@@ -18257,89 +18293,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="9" customFormat="1" ht="360">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:23" s="26" customFormat="1" ht="360">
+      <c r="A3" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23">
+        <v>5</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="H3" s="22">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D3" s="17">
-        <v>5</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21">
         <v>4.84</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="21">
         <v>33.549999999999997</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="21">
         <v>3.82</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="21">
         <v>0</v>
       </c>
-      <c r="W3" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="9" customFormat="1" ht="90">
+      <c r="W3" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="9" customFormat="1" ht="105">
       <c r="A4" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C4" s="16">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="H4" s="4">
         <v>2E-100</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D4" s="16">
-        <v>5</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>873</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>17</v>
@@ -18379,64 +18413,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="9" customFormat="1" ht="75">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:23" s="26" customFormat="1" ht="75">
+      <c r="A5" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23">
+        <v>5</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" s="22">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D5" s="17">
-        <v>5</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5">
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21">
         <v>3.27</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="21">
         <v>3.54</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="21">
         <v>608.62</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="21">
         <v>136.22999999999999</v>
       </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5">
+      <c r="U5" s="21"/>
+      <c r="V5" s="21">
         <v>1</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="21">
         <v>3</v>
       </c>
     </row>
@@ -18444,26 +18476,26 @@
       <c r="A6" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C6" s="16">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" s="4">
         <v>1E-41</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D6" s="16">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>17</v>
@@ -18496,30 +18528,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="3" customFormat="1" ht="45">
+    <row r="7" spans="1:23" s="3" customFormat="1" ht="150">
       <c r="A7" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C7" s="16">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="H7" s="4">
         <v>9.0000000000000002E-42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D7" s="16">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>23</v>
@@ -18552,30 +18584,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="3" customFormat="1" ht="45">
+    <row r="8" spans="1:23" s="3" customFormat="1" ht="120">
       <c r="A8" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C8" s="17">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" s="6">
         <v>2.0000000000000001E-61</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D8" s="17">
-        <v>5</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>251</v>
@@ -18615,30 +18647,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="3" customFormat="1" ht="105">
+    <row r="9" spans="1:23" s="3" customFormat="1" ht="150">
       <c r="A9" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C9" s="16">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="H9" s="4">
         <v>6.0000000000000005E-42</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D9" s="16">
-        <v>5</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>1311</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>418</v>
@@ -18671,30 +18703,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="3" customFormat="1" ht="105">
+    <row r="10" spans="1:23" s="3" customFormat="1" ht="30">
       <c r="A10" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C10" s="17">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="H10" s="6">
         <v>1.0000000000000001E-130</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D10" s="17">
-        <v>5</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>399</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>17</v>
@@ -18734,30 +18766,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="3" customFormat="1" ht="330">
+    <row r="11" spans="1:23" s="3" customFormat="1" ht="30">
       <c r="A11" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C11" s="17">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="H11" s="6">
         <v>3E-132</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D11" s="17">
-        <v>5</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>17</v>
@@ -18795,30 +18827,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="3" customFormat="1" ht="315">
+    <row r="12" spans="1:23" s="5" customFormat="1" ht="120">
       <c r="A12" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C12" s="17">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="H12" s="6">
         <v>4.9999999999999999E-13</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D12" s="17">
-        <v>5</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>1282</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>849</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>17</v>
@@ -18835,17 +18867,12 @@
       <c r="M12" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
       <c r="R12" s="5">
         <v>2.25</v>
       </c>
       <c r="S12" s="5">
         <v>67</v>
       </c>
-      <c r="T12" s="5"/>
       <c r="U12" s="5">
         <v>2.62</v>
       </c>
@@ -18856,30 +18883,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="3" customFormat="1" ht="195">
+    <row r="13" spans="1:23" s="3" customFormat="1" ht="105">
       <c r="A13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C13" s="16">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="4">
         <v>8.9999999999999995E-14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D13" s="16">
-        <v>5</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>84</v>
@@ -18909,30 +18936,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="3" customFormat="1" ht="90">
+    <row r="14" spans="1:23" s="3" customFormat="1" ht="60">
       <c r="A14" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C14" s="17">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="H14" s="6">
         <v>2.0000000000000002E-43</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D14" s="17">
-        <v>5</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>1253</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>462</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>29</v>
@@ -18970,30 +18997,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="3" customFormat="1" ht="60">
+    <row r="15" spans="1:23" s="3" customFormat="1" ht="45">
       <c r="A15" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C15" s="17">
+        <v>5</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="H15" s="6">
         <v>1.9999999999999999E-40</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D15" s="17">
-        <v>5</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>612</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>23</v>
@@ -19031,93 +19058,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="3" customFormat="1" ht="105">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:23" s="21" customFormat="1" ht="105">
+      <c r="A16" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23">
+        <v>5</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="H16" s="22">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D16" s="17">
-        <v>5</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>1296</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5">
+      <c r="O16" s="21">
         <v>2.48</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5">
+      <c r="R16" s="21">
         <v>7.15</v>
       </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5">
+      <c r="T16" s="21">
         <v>177.12</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="21">
         <v>9.39</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16" s="21">
         <v>1</v>
       </c>
-      <c r="W16" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" s="3" customFormat="1" ht="360">
+      <c r="W16" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="3" customFormat="1" ht="120">
       <c r="A17" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C17" s="17">
+        <v>5</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="6">
         <v>3.0000000000000002E-40</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D17" s="17">
-        <v>5</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>29</v>
@@ -19159,26 +19180,26 @@
       <c r="A18" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C18" s="16">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="H18" s="4">
         <v>1.9999999999999999E-60</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D18" s="16">
-        <v>5</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>773</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>774</v>
@@ -19214,30 +19235,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="3" customFormat="1" ht="90">
+    <row r="19" spans="1:23" s="3" customFormat="1" ht="45">
       <c r="A19" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C19" s="16">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="H19" s="4">
         <v>1.9999999999999999E-64</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D19" s="16">
-        <v>5</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>780</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>781</v>
@@ -19277,26 +19298,26 @@
       <c r="A20" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C20" s="17">
+        <v>5</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="H20" s="6">
         <v>5.0000000000000003E-69</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D20" s="17">
-        <v>5</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>1268</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>84</v>
@@ -19336,26 +19357,26 @@
       <c r="A21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C21" s="16">
+        <v>5</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="4">
         <v>1.0000000000000001E-32</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D21" s="16">
-        <v>5</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>17</v>
@@ -19392,26 +19413,26 @@
       <c r="A22" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C22" s="17">
+        <v>5</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="H22" s="6">
         <v>3.0000000000000002E-55</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D22" s="17">
-        <v>5</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>294</v>
@@ -19451,54 +19472,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="3" customFormat="1" ht="90">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:23" s="21" customFormat="1" ht="90">
+      <c r="A23" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="H23" s="22">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="10" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="21">
         <v>2.09</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="21">
         <v>2.15</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="21">
         <v>3.09</v>
       </c>
-      <c r="V23" s="3">
-        <v>3</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="V23" s="21">
+        <v>3</v>
+      </c>
+      <c r="W23" s="21">
         <v>0</v>
       </c>
     </row>
@@ -19506,26 +19525,26 @@
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C24" s="16">
+        <v>5</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="4">
         <v>3E-52</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D24" s="16">
-        <v>5</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>17</v>
@@ -19558,30 +19577,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="3" customFormat="1" ht="60">
+    <row r="25" spans="1:23" s="3" customFormat="1" ht="105">
       <c r="A25" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C25" s="16">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="H25" s="4">
         <v>4.0000000000000001E-99</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D25" s="16">
-        <v>5</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>1213</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>716</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>717</v>
@@ -19614,30 +19633,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="3" customFormat="1" ht="105">
+    <row r="26" spans="1:23" s="3" customFormat="1" ht="150">
       <c r="A26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C26" s="16">
+        <v>5</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="4">
         <v>4.9999999999999998E-58</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D26" s="16">
-        <v>5</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>17</v>
@@ -19670,30 +19689,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="3" customFormat="1" ht="225">
+    <row r="27" spans="1:23" s="3" customFormat="1" ht="165">
       <c r="A27" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C27" s="16">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="3">
         <v>0</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D27" s="16">
-        <v>2</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>17</v>
@@ -19726,30 +19745,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="3" customFormat="1" ht="90">
+    <row r="28" spans="1:23" s="3" customFormat="1" ht="45">
       <c r="A28" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C28" s="16">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="3">
         <v>0</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D28" s="16">
-        <v>5</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>1106</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>154</v>
@@ -19782,86 +19801,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="3" customFormat="1" ht="105">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:23" s="21" customFormat="1" ht="150">
+      <c r="A29" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23">
+        <v>5</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="22">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D29" s="16">
-        <v>5</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="21">
         <v>5.12</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="21">
         <v>13.86</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="21">
         <v>2.27</v>
       </c>
-      <c r="V29" s="3">
-        <v>3</v>
-      </c>
-      <c r="W29" s="3">
+      <c r="V29" s="21">
+        <v>3</v>
+      </c>
+      <c r="W29" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="3" customFormat="1">
+    <row r="30" spans="1:23" s="3" customFormat="1" ht="30">
       <c r="A30" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C30" s="17">
+        <v>5</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="H30" s="6">
         <v>7.9999999999999994E-104</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D30" s="17">
-        <v>5</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>917</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>3</v>
@@ -19899,30 +19916,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="3" customFormat="1" ht="135">
+    <row r="31" spans="1:23" s="5" customFormat="1" ht="135">
       <c r="A31" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C31" s="17">
+        <v>5</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="H31" s="6">
         <v>1E-13</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D31" s="17">
-        <v>5</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>277</v>
@@ -19939,17 +19956,12 @@
       <c r="M31" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
       <c r="R31" s="5">
         <v>10.23</v>
       </c>
       <c r="S31" s="5">
         <v>2.92</v>
       </c>
-      <c r="T31" s="5"/>
       <c r="U31" s="5">
         <v>2.57</v>
       </c>
@@ -19964,26 +19976,26 @@
       <c r="A32" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C32" s="16">
+        <v>5</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="H32" s="4">
         <v>1E-25</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D32" s="16">
-        <v>5</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>893</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>894</v>
@@ -20016,91 +20028,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" ht="225">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:23" s="21" customFormat="1" ht="105">
+      <c r="A33" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23">
+        <v>5</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="H33" s="22">
         <v>6.9999999999999999E-6</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D33" s="17">
-        <v>5</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M33" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5">
+      <c r="P33" s="21">
         <v>4.09</v>
       </c>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5">
+      <c r="R33" s="21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33" s="21">
         <v>45.37</v>
       </c>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5">
+      <c r="U33" s="21">
         <v>6.37</v>
       </c>
-      <c r="V33" s="5">
+      <c r="V33" s="21">
         <v>2</v>
       </c>
-      <c r="W33" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" ht="120">
+      <c r="W33" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" ht="45">
       <c r="A34" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C34" s="17">
+        <v>5</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="H34" s="6">
         <v>3.0000000000000001E-17</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D34" s="17">
-        <v>5</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>389</v>
@@ -20138,30 +20143,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" ht="30">
+    <row r="35" spans="1:23" s="3" customFormat="1">
       <c r="A35" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C35" s="16">
+        <v>5</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="H35" s="4">
         <v>1.9999999999999999E-20</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D35" s="16">
-        <v>5</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>951</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>29</v>
@@ -20195,26 +20200,26 @@
       <c r="A36" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C36" s="16">
+        <v>5</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="H36" s="4">
         <v>2.0000000000000001E-42</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D36" s="16">
-        <v>5</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>1316</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>747</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>748</v>
@@ -20247,89 +20252,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" ht="135">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:23" s="21" customFormat="1" ht="30">
+      <c r="A37" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="22" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C37" s="23">
+        <v>5</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="H37" s="22">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D37" s="16">
-        <v>5</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="21">
         <v>4.42</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="21">
         <v>3.32</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="21">
         <v>3.13</v>
       </c>
-      <c r="U37" s="3">
+      <c r="U37" s="21">
         <v>3.76</v>
       </c>
-      <c r="V37" s="3">
-        <v>3</v>
-      </c>
-      <c r="W37" s="3">
+      <c r="V37" s="21">
+        <v>3</v>
+      </c>
+      <c r="W37" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" ht="105">
+    <row r="38" spans="1:23" s="3" customFormat="1">
       <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C38" s="17">
+        <v>5</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="6">
         <v>4.9999999999999996E-25</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D38" s="17">
-        <v>5</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>17</v>
@@ -20367,26 +20372,26 @@
       <c r="A39" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C39" s="16">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="H39" s="4">
         <v>3.0000000000000002E-90</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D39" s="16">
-        <v>5</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>17</v>
@@ -20426,26 +20431,26 @@
       <c r="A40" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C40" s="16">
+        <v>5</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="H40" s="4">
         <v>9.9999999999999996E-165</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D40" s="16">
-        <v>5</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>741</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>17</v>
@@ -20478,30 +20483,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" ht="60">
+    <row r="41" spans="1:23" s="3" customFormat="1" ht="30">
       <c r="A41" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C41" s="16">
+        <v>5</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="4">
         <v>2.0000000000000001E-32</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D41" s="16">
-        <v>5</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>113</v>
@@ -20535,28 +20540,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" ht="135">
+    <row r="42" spans="1:23" s="3" customFormat="1">
       <c r="A42" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C42" s="17">
+        <v>5</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" s="6">
         <v>1.9999999999999999E-28</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D42" s="17">
-        <v>5</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>173</v>
@@ -20594,28 +20599,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="3" customFormat="1" ht="180">
+    <row r="43" spans="1:23" s="3" customFormat="1">
       <c r="A43" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="B43" s="6">
-        <v>2.9999999999999999E-19</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="17" t="s">
+      <c r="B43" s="6"/>
+      <c r="C43" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>1110</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>1110</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="G43" s="13" t="s">
         <v>542</v>
+      </c>
+      <c r="H43" s="6">
+        <v>2.9999999999999999E-19</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>17</v>
@@ -20651,28 +20656,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="3" customFormat="1" ht="150">
+    <row r="44" spans="1:23" s="3" customFormat="1" ht="45">
       <c r="A44" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="B44" s="6">
-        <v>1E-41</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="17" t="s">
+      <c r="B44" s="6"/>
+      <c r="C44" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>1110</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>1110</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>958</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="G44" s="13" t="s">
         <v>959</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1E-41</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>315</v>
@@ -20708,28 +20713,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="3" customFormat="1" ht="150">
+    <row r="45" spans="1:23" s="3" customFormat="1" ht="45">
       <c r="A45" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="6"/>
+      <c r="C45" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H45" s="6">
         <v>3.0000000000000001E-70</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="17" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>23</v>
@@ -20769,28 +20774,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="3" customFormat="1" ht="210">
+    <row r="46" spans="1:23" s="3" customFormat="1">
       <c r="A46" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B46" s="6">
-        <v>2.9999999999999999E-7</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="17" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>1110</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>1110</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="G46" s="13" t="s">
         <v>288</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>17</v>
@@ -20832,22 +20837,22 @@
       <c r="A47" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="B47" s="6">
-        <v>4.9999999999999996E-40</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="17"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="12" t="s">
+        <v>1110</v>
+      </c>
       <c r="E47" s="12" t="s">
         <v>1110</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="G47" s="13" t="s">
         <v>729</v>
+      </c>
+      <c r="H47" s="6">
+        <v>4.9999999999999996E-40</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>17</v>
@@ -20883,26 +20888,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="3" customFormat="1" ht="135">
+    <row r="48" spans="1:23" s="3" customFormat="1" ht="225">
       <c r="A48" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="6"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H48" s="6">
         <v>4.9999999999999998E-73</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="12" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>17</v>
@@ -20940,28 +20945,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="3" customFormat="1" ht="45">
+    <row r="49" spans="1:23" s="3" customFormat="1" ht="30">
       <c r="A49" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="4"/>
+      <c r="C49" s="16">
+        <v>3</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="H49" s="4">
         <v>7.9999999999999995E-11</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="16">
-        <v>3</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>588</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>589</v>
@@ -20998,24 +21003,24 @@
       <c r="A50" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="6"/>
+      <c r="C50" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="H50" s="6">
         <v>3E-24</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="17" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>1240</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>240</v>
@@ -21055,24 +21060,24 @@
       <c r="A51" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="6"/>
+      <c r="C51" s="17">
+        <v>5</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="H51" s="6">
         <v>4.0000000000000001E-13</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="17">
-        <v>5</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>681</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>23</v>
@@ -21116,24 +21121,24 @@
       <c r="A52" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="6"/>
+      <c r="C52" s="17">
+        <v>5</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="H52" s="6">
         <v>2.0000000000000001E-114</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="17">
-        <v>5</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>670</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>17</v>
@@ -21173,28 +21178,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="3" customFormat="1" ht="210">
+    <row r="53" spans="1:23" s="3" customFormat="1" ht="315">
       <c r="A53" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="6"/>
+      <c r="C53" s="17">
+        <v>5</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="H53" s="6">
         <v>3.9999999999999997E-77</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="17">
-        <v>5</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>1252</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>670</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>29</v>
@@ -21238,24 +21243,24 @@
       <c r="A54" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="6"/>
+      <c r="C54" s="17">
+        <v>5</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="H54" s="6">
         <v>2.0000000000000001E-117</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="17">
-        <v>5</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>1246</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>658</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>29</v>
@@ -21299,24 +21304,24 @@
       <c r="A55" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="6"/>
+      <c r="C55" s="17">
+        <v>3</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="H55" s="6">
         <v>1.9999999999999999E-112</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="17">
-        <v>3</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>1277</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>84</v>
@@ -21360,24 +21365,24 @@
       <c r="A56" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="4"/>
+      <c r="C56" s="16">
+        <v>4</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="H56" s="4">
         <v>2.0000000000000001E-25</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="16">
-        <v>4</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>523</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>524</v>
@@ -21417,28 +21422,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="3" customFormat="1" ht="180">
+    <row r="57" spans="1:23" s="3" customFormat="1" ht="75">
       <c r="A57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="4"/>
+      <c r="C57" s="16">
+        <v>3</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="4">
         <v>3E-9</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="16">
-        <v>3</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>1215</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>10</v>
@@ -21475,24 +21480,24 @@
       <c r="A58" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="4"/>
+      <c r="C58" s="16">
+        <v>5</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="H58" s="4">
         <v>3E-9</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="16">
-        <v>5</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>23</v>
@@ -21532,22 +21537,22 @@
       <c r="A59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="4"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="10" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="4">
         <v>1E-52</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="10" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>29</v>
@@ -21584,24 +21589,24 @@
       <c r="A60" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="4"/>
+      <c r="C60" s="16">
+        <v>2</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H60" s="4">
         <v>2E-73</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="16">
-        <v>2</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>23</v>
@@ -21638,24 +21643,24 @@
       <c r="A61" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="4"/>
+      <c r="C61" s="16">
+        <v>2</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H61" s="4">
         <v>4.9999999999999997E-30</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="16">
-        <v>2</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>3</v>
@@ -21688,28 +21693,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23" s="3" customFormat="1" ht="409">
+    <row r="62" spans="1:23" s="3" customFormat="1" ht="120">
       <c r="A62" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="4"/>
+      <c r="C62" s="16">
+        <v>2</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H62" s="4">
         <v>4.9999999999999998E-81</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="16">
-        <v>2</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>179</v>
@@ -21742,28 +21747,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23" s="3" customFormat="1" ht="135">
+    <row r="63" spans="1:23" s="3" customFormat="1" ht="60">
       <c r="A63" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="4"/>
+      <c r="C63" s="16">
+        <v>5</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H63" s="4">
         <v>4.0000000000000001E-13</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="16">
-        <v>5</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>17</v>
@@ -21796,28 +21801,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="3" customFormat="1" ht="60">
+    <row r="64" spans="1:23" s="3" customFormat="1" ht="30">
       <c r="A64" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="4"/>
+      <c r="C64" s="16">
+        <v>5</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>980</v>
+      </c>
+      <c r="H64" s="4">
         <v>2.9999999999999998E-18</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="16">
-        <v>5</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>980</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>179</v>
@@ -21853,28 +21858,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="3" customFormat="1" ht="105">
+    <row r="65" spans="1:23" s="3" customFormat="1" ht="60">
       <c r="A65" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="4"/>
+      <c r="C65" s="16">
+        <v>3</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="H65" s="4">
         <v>3E-11</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="16">
-        <v>3</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>812</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>17</v>
@@ -21907,28 +21912,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="3" customFormat="1" ht="180">
+    <row r="66" spans="1:23" s="3" customFormat="1" ht="75">
       <c r="A66" s="5" t="s">
         <v>973</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="6"/>
+      <c r="C66" s="17">
+        <v>3</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="6">
         <v>1E-42</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="17">
-        <v>3</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>974</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>29</v>
@@ -21972,22 +21977,22 @@
       <c r="A67" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="4"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="H67" s="4">
         <v>2.0000000000000001E-33</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="10" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>647</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>29</v>
@@ -22020,26 +22025,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="3" customFormat="1" ht="150">
+    <row r="68" spans="1:23" s="3" customFormat="1" ht="60">
       <c r="A68" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="6"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="12" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H68" s="6">
         <v>4.0000000000000003E-43</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="12" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>17</v>
@@ -22077,28 +22082,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="3" customFormat="1" ht="315">
+    <row r="69" spans="1:23" s="3" customFormat="1" ht="30">
       <c r="A69" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="4"/>
+      <c r="C69" s="16">
+        <v>2</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H69" s="4">
         <v>4.0000000000000002E-141</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="16">
-        <v>2</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>166</v>
@@ -22131,28 +22136,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="3" customFormat="1" ht="270">
+    <row r="70" spans="1:23" s="3" customFormat="1" ht="90">
       <c r="A70" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="4"/>
+      <c r="C70" s="16">
+        <v>2</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="H70" s="4">
         <v>1.0000000000000001E-15</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="16">
-        <v>2</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>803</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>804</v>
@@ -22185,28 +22190,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="3" customFormat="1" ht="75">
+    <row r="71" spans="1:23" s="3" customFormat="1" ht="60">
       <c r="A71" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="4"/>
+      <c r="C71" s="16">
+        <v>4</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H71" s="4">
         <v>6.0000000000000002E-26</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="16">
-        <v>4</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>328</v>
@@ -22239,26 +22244,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="3" customFormat="1" ht="90">
+    <row r="72" spans="1:23" s="3" customFormat="1" ht="135">
       <c r="A72" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="4"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="H72" s="4">
         <v>2E-8</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="10" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>1104</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>29</v>
@@ -22298,24 +22303,24 @@
       <c r="A73" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="6"/>
+      <c r="C73" s="17">
+        <v>4</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="H73" s="6">
         <v>3.0000000000000001E-170</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="17">
-        <v>4</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>693</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>29</v>
@@ -22353,28 +22358,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="3" customFormat="1" ht="105">
+    <row r="74" spans="1:23" s="3" customFormat="1" ht="90">
       <c r="A74" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="6"/>
+      <c r="C74" s="17">
+        <v>2</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="H74" s="6">
         <v>1.9999999999999999E-29</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="17">
-        <v>2</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>881</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>23</v>
@@ -22412,28 +22417,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="3" customFormat="1" ht="105">
+    <row r="75" spans="1:23" s="3" customFormat="1" ht="75">
       <c r="A75" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="6"/>
+      <c r="C75" s="17">
+        <v>3</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" s="6">
         <v>2E-14</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="17">
-        <v>3</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>36</v>
@@ -22475,24 +22480,24 @@
       <c r="A76" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="4"/>
+      <c r="C76" s="16">
+        <v>5</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="H76" s="4">
         <v>2.9999999999999998E-63</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="16">
-        <v>5</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>963</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>277</v>
@@ -22528,27 +22533,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="3" customFormat="1" ht="90">
+    <row r="77" spans="1:23" s="3" customFormat="1" ht="45">
       <c r="A77" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="B77" s="3">
+      <c r="C77" s="16">
+        <v>2</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="H77" s="3">
         <v>0</v>
-      </c>
-      <c r="D77" s="16">
-        <v>2</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>785</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>84</v>
@@ -22592,24 +22597,24 @@
       <c r="A78" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="6"/>
+      <c r="C78" s="17">
+        <v>2</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="H78" s="6">
         <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="17">
-        <v>2</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>84</v>
@@ -22645,28 +22650,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="3" customFormat="1" ht="150">
+    <row r="79" spans="1:23" s="3" customFormat="1" ht="45">
       <c r="A79" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="6"/>
+      <c r="C79" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="H79" s="6">
         <v>7.0000000000000006E-169</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="17" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>755</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>17</v>
@@ -22710,23 +22715,23 @@
       <c r="A80" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B80" s="3">
+      <c r="C80" s="16">
+        <v>2</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="H80" s="3">
         <v>0</v>
-      </c>
-      <c r="D80" s="16">
-        <v>2</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>17</v>
@@ -22763,24 +22768,24 @@
       <c r="A81" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="4"/>
+      <c r="C81" s="16">
+        <v>1</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="H81" s="4">
         <v>4.0000000000000002E-135</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="16">
-        <v>1</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>867</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>84</v>
@@ -22820,24 +22825,24 @@
       <c r="A82" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="6"/>
+      <c r="C82" s="17">
+        <v>1</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H82" s="6">
         <v>1.9999999999999998E-71</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="17">
-        <v>1</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>23</v>
@@ -22875,28 +22880,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:23" s="3" customFormat="1" ht="75">
+    <row r="83" spans="1:23" s="3" customFormat="1" ht="30">
       <c r="A83" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="4"/>
+      <c r="C83" s="16">
+        <v>2</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="H83" s="4">
         <v>6.9999999999999999E-28</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="16">
-        <v>2</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>839</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>748</v>
@@ -22933,24 +22938,24 @@
       <c r="A84" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="5"/>
+      <c r="C84" s="17">
+        <v>2</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="H84" s="5">
         <v>0</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="17">
-        <v>2</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>565</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>23</v>
@@ -22992,24 +22997,24 @@
       <c r="A85" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="6"/>
+      <c r="C85" s="17">
+        <v>2</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="H85" s="6">
         <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="17">
-        <v>2</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>1271</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>797</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>17</v>
@@ -23049,28 +23054,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:23" s="3" customFormat="1" ht="30">
+    <row r="86" spans="1:23" s="3" customFormat="1" ht="135">
       <c r="A86" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="6"/>
+      <c r="C86" s="17">
+        <v>4</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="H86" s="6">
         <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="17">
-        <v>4</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>828</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>17</v>
@@ -23108,28 +23113,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:23" s="3" customFormat="1" ht="150">
+    <row r="87" spans="1:23" s="3" customFormat="1" ht="45">
       <c r="A87" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="4"/>
+      <c r="C87" s="16">
+        <v>2</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H87" s="4">
         <v>3.9999999999999999E-45</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="16">
-        <v>2</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>1029</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>277</v>
@@ -23162,28 +23167,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:23" s="3" customFormat="1" ht="90">
+    <row r="88" spans="1:23" s="3" customFormat="1" ht="120">
       <c r="A88" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="4"/>
+      <c r="C88" s="16">
+        <v>2</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H88" s="4">
         <v>5.0000000000000001E-140</v>
-      </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="16">
-        <v>2</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>23</v>
@@ -23219,28 +23224,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="3" customFormat="1" ht="165">
+    <row r="89" spans="1:23" s="3" customFormat="1" ht="30">
       <c r="A89" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="4"/>
+      <c r="C89" s="16">
+        <v>3</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H89" s="4">
         <v>4.0000000000000001E-58</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="16">
-        <v>3</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>1013</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>23</v>
@@ -23276,28 +23281,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:23" s="3" customFormat="1" ht="210">
+    <row r="90" spans="1:23" s="3" customFormat="1" ht="90">
       <c r="A90" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="6"/>
+      <c r="C90" s="17">
+        <v>3</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H90" s="6">
         <v>1.0000000000000001E-17</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="17">
-        <v>3</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>23</v>
@@ -23337,26 +23342,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="3" customFormat="1" ht="105">
+    <row r="91" spans="1:23" s="3" customFormat="1" ht="210">
       <c r="A91" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="5"/>
+      <c r="C91" s="17">
+        <v>3</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H91" s="5">
         <v>0</v>
-      </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="17">
-        <v>3</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F91" s="13"/>
-      <c r="G91" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>36</v>
@@ -23396,28 +23401,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="3" customFormat="1" ht="405">
+    <row r="92" spans="1:23" s="3" customFormat="1" ht="60">
       <c r="A92" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="4"/>
+      <c r="C92" s="16">
+        <v>5</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="H92" s="4">
         <v>4.0000000000000001E-117</v>
-      </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="16">
-        <v>5</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>791</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>36</v>
@@ -23453,28 +23458,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:23" s="3" customFormat="1" ht="105">
+    <row r="93" spans="1:23" s="3" customFormat="1" ht="60">
       <c r="A93" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="6"/>
+      <c r="C93" s="17">
+        <v>2</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="H93" s="6">
         <v>1E-27</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="17">
-        <v>2</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>623</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>17</v>
@@ -23512,28 +23517,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" s="3" customFormat="1" ht="409">
+    <row r="94" spans="1:23" s="3" customFormat="1" ht="150">
       <c r="A94" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="4"/>
+      <c r="C94" s="16">
+        <v>3</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="H94" s="4">
         <v>1E-8</v>
-      </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="16">
-        <v>3</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>429</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>29</v>
@@ -23570,24 +23575,24 @@
       <c r="A95" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="4"/>
+      <c r="C95" s="16">
+        <v>3</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="H95" s="4">
         <v>2.0000000000000001E-42</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="16">
-        <v>3</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>277</v>
@@ -23624,24 +23629,24 @@
       <c r="A96" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="4"/>
+      <c r="C96" s="16">
+        <v>4</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="H96" s="4">
         <v>2.9999999999999999E-41</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="16">
-        <v>4</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>17</v>
@@ -23674,28 +23679,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23" s="3" customFormat="1" ht="120">
+    <row r="97" spans="1:23" s="3" customFormat="1" ht="105">
       <c r="A97" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="4"/>
+      <c r="C97" s="16">
+        <v>4</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="H97" s="4">
         <v>2E-41</v>
-      </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="16">
-        <v>4</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>315</v>
@@ -23728,28 +23733,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="3" customFormat="1" ht="120">
+    <row r="98" spans="1:23" s="3" customFormat="1" ht="180">
       <c r="A98" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="4"/>
+      <c r="C98" s="16">
+        <v>4</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="H98" s="4">
         <v>6.0000000000000001E-32</v>
-      </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="16">
-        <v>4</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>734</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>735</v>
@@ -23782,28 +23787,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:23" s="8" customFormat="1" ht="90">
+    <row r="99" spans="1:23" s="8" customFormat="1" ht="135">
       <c r="A99" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="6"/>
+      <c r="C99" s="17">
+        <v>2</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="H99" s="6">
         <v>1E-127</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="17">
-        <v>2</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>861</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>17</v>
@@ -23843,28 +23848,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="8" customFormat="1" ht="105">
+    <row r="100" spans="1:23" s="8" customFormat="1" ht="165">
       <c r="A100" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="3"/>
+      <c r="C100" s="16">
+        <v>3</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H100" s="3">
         <v>0</v>
-      </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="16">
-        <v>3</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>29</v>
@@ -23900,28 +23905,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23" s="8" customFormat="1" ht="45">
+    <row r="101" spans="1:23" s="8" customFormat="1" ht="105">
       <c r="A101" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="4"/>
+      <c r="C101" s="16">
+        <v>2</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="H101" s="4">
         <v>3.0000000000000003E-39</v>
-      </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="16">
-        <v>2</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>1171</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>17</v>
@@ -23959,28 +23964,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:23" s="8" customFormat="1" ht="120">
+    <row r="102" spans="1:23" s="8" customFormat="1" ht="75">
       <c r="A102" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="4"/>
+      <c r="C102" s="16">
+        <v>1</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="H102" s="4">
         <v>6.0000000000000001E-32</v>
-      </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="16">
-        <v>1</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>17</v>
@@ -24022,24 +24027,24 @@
       <c r="A103" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="6"/>
+      <c r="C103" s="17">
+        <v>2</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="H103" s="6">
         <v>4.9999999999999999E-17</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="17">
-        <v>2</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>822</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>3</v>
@@ -24081,24 +24086,24 @@
       <c r="A104" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="4"/>
+      <c r="C104" s="16">
+        <v>3</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="H104" s="4">
         <v>1E-165</v>
-      </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="16">
-        <v>3</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>833</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>23</v>
@@ -24140,24 +24145,24 @@
       <c r="A105" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="4"/>
+      <c r="C105" s="16">
+        <v>5</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="H105" s="4">
         <v>9.0000000000000002E-38</v>
-      </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="16">
-        <v>5</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>1210</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>844</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>144</v>
@@ -24195,28 +24200,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:23" s="5" customFormat="1" ht="150">
+    <row r="106" spans="1:23" s="5" customFormat="1" ht="195">
       <c r="A106" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="6"/>
+      <c r="C106" s="17">
+        <v>2</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="H106" s="6">
         <v>3.0000000000000001E-59</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="17">
-        <v>2</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>767</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>23</v>
@@ -24252,26 +24257,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" s="5" customFormat="1" ht="120">
+    <row r="107" spans="1:23" s="5" customFormat="1" ht="90">
       <c r="A107" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="4"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="H107" s="4">
         <v>5.9999999999999999E-88</v>
-      </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="10" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>855</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>166</v>
@@ -24315,22 +24320,22 @@
       <c r="A108" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="4"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="H108" s="4">
         <v>4E-174</v>
-      </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="10" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>1103</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>553</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>17</v>
@@ -24372,22 +24377,22 @@
       <c r="A109" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="4"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="H109" s="4">
         <v>2.9999999999999999E-46</v>
-      </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="10" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>1133</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>600</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>315</v>
@@ -24425,28 +24430,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:23" s="5" customFormat="1" ht="90">
+    <row r="110" spans="1:23" s="5" customFormat="1" ht="60">
       <c r="A110" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="4"/>
+      <c r="C110" s="16">
+        <v>5</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="H110" s="4">
         <v>3.0000000000000003E-39</v>
-      </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="16">
-        <v>5</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>3</v>
@@ -24484,28 +24489,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:23" s="5" customFormat="1" ht="45">
+    <row r="111" spans="1:23" s="5" customFormat="1" ht="105">
       <c r="A111" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="4"/>
+      <c r="C111" s="16">
+        <v>5</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H111" s="4">
         <v>4E-55</v>
-      </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="16">
-        <v>5</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>629</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>3</v>
@@ -24547,24 +24552,24 @@
       <c r="A112" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="6"/>
+      <c r="C112" s="17">
+        <v>5</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="H112" s="6">
         <v>5.9999999999999998E-38</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="17">
-        <v>5</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>991</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>84</v>
@@ -24604,24 +24609,24 @@
       <c r="A113" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="6"/>
+      <c r="C113" s="17">
+        <v>2</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="H113" s="6">
         <v>9.9999999999999993E-105</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="17">
-        <v>2</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>1267</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>359</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>23</v>
@@ -24651,28 +24656,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:23" s="5" customFormat="1" ht="30">
+    <row r="114" spans="1:23" s="5" customFormat="1" ht="105">
       <c r="A114" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="4"/>
+      <c r="C114" s="16">
+        <v>3</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="H114" s="4">
         <v>6.9999999999999999E-28</v>
-      </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="16">
-        <v>3</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>969</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>23</v>
@@ -24710,28 +24715,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:23" s="5" customFormat="1" ht="90">
+    <row r="115" spans="1:23" s="5" customFormat="1" ht="405">
       <c r="A115" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="6"/>
+      <c r="C115" s="17">
+        <v>3</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="H115" s="6">
         <v>3.9999999999999997E-104</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="17">
-        <v>3</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>23</v>
@@ -24771,24 +24776,24 @@
       <c r="A116" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="4"/>
+      <c r="C116" s="16">
+        <v>4</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="H116" s="4">
         <v>2.0000000000000001E-18</v>
-      </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="16">
-        <v>4</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>1208</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>997</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>144</v>
@@ -24832,24 +24837,24 @@
       <c r="A117" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="6"/>
+      <c r="C117" s="17">
+        <v>3</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="H117" s="6">
         <v>4.0000000000000002E-62</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="17">
-        <v>3</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>698</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>23</v>
@@ -24879,27 +24884,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" s="5" customFormat="1" ht="90">
+    <row r="118" spans="1:23" s="5" customFormat="1" ht="409">
       <c r="A118" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="B118" s="5">
+      <c r="C118" s="17">
+        <v>3</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="H118" s="5">
         <v>0</v>
-      </c>
-      <c r="D118" s="17">
-        <v>3</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F118" s="13" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>687</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>17</v>
@@ -24932,28 +24937,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:23" s="5" customFormat="1" ht="60">
+    <row r="119" spans="1:23" s="5" customFormat="1" ht="90">
       <c r="A119" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="4"/>
+      <c r="C119" s="16">
+        <v>2</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="H119" s="4">
         <v>8.9999999999999994E-55</v>
-      </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="16">
-        <v>2</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>17</v>
@@ -24991,28 +24996,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:23" s="5" customFormat="1" ht="135">
+    <row r="120" spans="1:23" s="5" customFormat="1" ht="315">
       <c r="A120" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="3"/>
+      <c r="C120" s="16">
+        <v>4</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H120" s="3">
         <v>0</v>
-      </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="16">
-        <v>4</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>71</v>
@@ -25054,24 +25059,24 @@
       <c r="A121" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="6"/>
+      <c r="C121" s="17">
+        <v>4</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="H121" s="6">
         <v>3.9999999999999998E-36</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="17">
-        <v>4</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>1303</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>985</v>
       </c>
       <c r="I121" s="5" t="s">
         <v>23</v>
@@ -25107,28 +25112,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" s="5" customFormat="1" ht="60">
+    <row r="122" spans="1:23" s="5" customFormat="1" ht="75">
       <c r="A122" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="3"/>
+      <c r="C122" s="16">
+        <v>1</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="H122" s="3">
         <v>0</v>
-      </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="16">
-        <v>1</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>23</v>
@@ -25168,28 +25173,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:23" s="5" customFormat="1" ht="195">
+    <row r="123" spans="1:23" s="5" customFormat="1" ht="60">
       <c r="A123" s="5" t="s">
         <v>943</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="6"/>
+      <c r="C123" s="17">
+        <v>2</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="H123" s="6">
         <v>2.0000000000000001E-32</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="17">
-        <v>2</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>945</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>946</v>
@@ -25222,28 +25227,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:23" s="5" customFormat="1" ht="150">
+    <row r="124" spans="1:23" s="5" customFormat="1" ht="90">
       <c r="A124" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="4"/>
+      <c r="C124" s="16">
+        <v>2</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="H124" s="4">
         <v>1E-10</v>
-      </c>
-      <c r="C124" s="4"/>
-      <c r="D124" s="16">
-        <v>2</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>640</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>641</v>
@@ -25281,28 +25286,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" s="5" customFormat="1" ht="90">
+    <row r="125" spans="1:23" s="5" customFormat="1" ht="120">
       <c r="A125" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="4"/>
+      <c r="C125" s="16">
+        <v>3</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="H125" s="4">
         <v>4.0000000000000002E-9</v>
-      </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="16">
-        <v>3</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>84</v>
@@ -25342,28 +25347,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:23" s="5" customFormat="1" ht="60">
+    <row r="126" spans="1:23" s="5" customFormat="1" ht="45">
       <c r="A126" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="4"/>
+      <c r="C126" s="16">
+        <v>2</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="H126" s="4">
         <v>2.0000000000000002E-15</v>
-      </c>
-      <c r="C126" s="4"/>
-      <c r="D126" s="16">
-        <v>2</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>635</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>636</v>
@@ -25401,28 +25406,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:23" s="5" customFormat="1" ht="60">
+    <row r="127" spans="1:23" s="5" customFormat="1" ht="225">
       <c r="A127" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="4"/>
+      <c r="C127" s="16">
+        <v>5</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="H127" s="4">
         <v>2.0000000000000001E-22</v>
-      </c>
-      <c r="C127" s="4"/>
-      <c r="D127" s="16">
-        <v>5</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>315</v>
@@ -25462,28 +25467,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:23" s="5" customFormat="1" ht="45">
+    <row r="128" spans="1:23" s="5" customFormat="1" ht="180">
       <c r="A128" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="4"/>
+      <c r="C128" s="16">
+        <v>4</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H128" s="4">
         <v>1E-8</v>
-      </c>
-      <c r="C128" s="4"/>
-      <c r="D128" s="16">
-        <v>4</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>1086</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>192</v>
@@ -25523,28 +25528,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:23" s="5" customFormat="1">
+    <row r="129" spans="1:23" s="5" customFormat="1" ht="105">
       <c r="A129" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="4"/>
+      <c r="C129" s="16">
+        <v>5</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H129" s="4">
         <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C129" s="4"/>
-      <c r="D129" s="16">
-        <v>5</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>36</v>
@@ -25582,28 +25587,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:23" s="5" customFormat="1" ht="45">
+    <row r="130" spans="1:23" s="5" customFormat="1" ht="165">
       <c r="A130" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="4"/>
+      <c r="C130" s="16">
+        <v>2</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H130" s="4">
         <v>2E-45</v>
-      </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="16">
-        <v>2</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>3</v>
@@ -25641,28 +25646,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:23" s="5" customFormat="1" ht="150">
+    <row r="131" spans="1:23" s="5" customFormat="1" ht="45">
       <c r="A131" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="4"/>
+      <c r="C131" s="16">
+        <v>3</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="H131" s="4">
         <v>5.0000000000000002E-142</v>
-      </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="16">
-        <v>3</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>277</v>
@@ -25700,28 +25705,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:23" s="5" customFormat="1" ht="30">
+    <row r="132" spans="1:23" s="5" customFormat="1" ht="90">
       <c r="A132" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="4"/>
+      <c r="C132" s="16">
+        <v>4</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="H132" s="4">
         <v>5.0000000000000002E-167</v>
-      </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="16">
-        <v>4</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>71</v>
@@ -25759,27 +25764,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:23" s="5" customFormat="1" ht="105">
+    <row r="133" spans="1:23" s="5" customFormat="1" ht="60">
       <c r="A133" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B133" s="5">
+      <c r="C133" s="17">
+        <v>5</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="H133" s="5">
         <v>0</v>
-      </c>
-      <c r="D133" s="17">
-        <v>5</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="I133" s="5" t="s">
         <v>23</v>
@@ -25815,28 +25820,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:23" s="5" customFormat="1" ht="165">
+    <row r="134" spans="1:23" s="5" customFormat="1" ht="45">
       <c r="A134" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="4"/>
+      <c r="C134" s="16">
+        <v>2</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>940</v>
+      </c>
+      <c r="H134" s="4">
         <v>2.9999999999999999E-50</v>
-      </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="16">
-        <v>2</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F134" s="10" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>940</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>315</v>
@@ -25880,24 +25885,24 @@
       <c r="A135" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="3"/>
+      <c r="C135" s="16">
+        <v>2</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="H135" s="3">
         <v>0</v>
-      </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="16">
-        <v>2</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>23</v>
@@ -25935,28 +25940,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23" s="5" customFormat="1" ht="45">
+    <row r="136" spans="1:23" s="5" customFormat="1" ht="75">
       <c r="A136" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="4"/>
+      <c r="C136" s="16">
+        <v>4</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="H136" s="4">
         <v>2.0000000000000001E-117</v>
-      </c>
-      <c r="C136" s="4"/>
-      <c r="D136" s="16">
-        <v>4</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F136" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>559</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>3</v>
@@ -25994,28 +25999,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:23" s="5" customFormat="1" ht="195">
+    <row r="137" spans="1:23" s="5" customFormat="1" ht="30">
       <c r="A137" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="3"/>
+      <c r="C137" s="16">
+        <v>2</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="H137" s="3">
         <v>0</v>
-      </c>
-      <c r="C137" s="3"/>
-      <c r="D137" s="16">
-        <v>2</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>468</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>23</v>
@@ -26055,28 +26060,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:23" s="5" customFormat="1" ht="180">
+    <row r="138" spans="1:23" s="5" customFormat="1" ht="120">
       <c r="A138" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B138" s="6">
+      <c r="B138" s="6"/>
+      <c r="C138" s="17">
+        <v>3</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="H138" s="6">
         <v>2.0000000000000001E-161</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="17">
-        <v>3</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F138" s="12" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>547</v>
       </c>
       <c r="I138" s="5" t="s">
         <v>36</v>
@@ -26112,28 +26117,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:23" s="5" customFormat="1" ht="75">
+    <row r="139" spans="1:23" s="5" customFormat="1" ht="105">
       <c r="A139" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B139" s="6">
+      <c r="B139" s="6"/>
+      <c r="C139" s="17">
+        <v>4</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="H139" s="6">
         <v>1.9999999999999999E-34</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="17">
-        <v>4</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>1238</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>606</v>
       </c>
       <c r="I139" s="5" t="s">
         <v>17</v>
@@ -26166,28 +26171,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:23" s="5" customFormat="1" ht="30">
+    <row r="140" spans="1:23" s="5" customFormat="1" ht="180">
       <c r="A140" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="4"/>
+      <c r="C140" s="16">
+        <v>5</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H140" s="4">
         <v>6.9999999999999997E-31</v>
-      </c>
-      <c r="C140" s="4"/>
-      <c r="D140" s="16">
-        <v>5</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F140" s="10" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>1003</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>179</v>
@@ -26227,28 +26232,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:23" s="5" customFormat="1" ht="105">
+    <row r="141" spans="1:23" s="5" customFormat="1" ht="120">
       <c r="A141" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="4"/>
+      <c r="C141" s="16">
+        <v>3</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H141" s="4">
         <v>6.0000000000000006E-39</v>
-      </c>
-      <c r="C141" s="4"/>
-      <c r="D141" s="16">
-        <v>3</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>1211</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>23</v>
@@ -26286,28 +26291,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:23" s="5" customFormat="1">
+    <row r="142" spans="1:23" s="5" customFormat="1" ht="150">
       <c r="A142" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="4"/>
+      <c r="C142" s="16">
+        <v>5</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="H142" s="4">
         <v>1.9999999999999999E-162</v>
-      </c>
-      <c r="C142" s="4"/>
-      <c r="D142" s="16">
-        <v>5</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F142" s="10" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>23</v>
@@ -26345,28 +26350,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23" s="5" customFormat="1">
+    <row r="143" spans="1:23" s="5" customFormat="1" ht="210">
       <c r="A143" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="3"/>
+      <c r="C143" s="16">
+        <v>5</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H143" s="3">
         <v>0</v>
-      </c>
-      <c r="C143" s="3"/>
-      <c r="D143" s="16">
-        <v>5</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>144</v>
@@ -26404,26 +26409,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:23" s="5" customFormat="1" ht="300">
+    <row r="144" spans="1:23" s="5" customFormat="1">
       <c r="A144" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="4"/>
+      <c r="C144" s="16">
+        <v>1</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E144" s="10"/>
+      <c r="F144" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="H144" s="4">
         <v>1.9999999999999999E-39</v>
-      </c>
-      <c r="C144" s="4"/>
-      <c r="D144" s="16">
-        <v>1</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F144" s="10"/>
-      <c r="G144" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>23</v>
@@ -26459,28 +26464,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:23" s="5" customFormat="1" ht="105">
+    <row r="145" spans="1:23" s="5" customFormat="1" ht="45">
       <c r="A145" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="6"/>
+      <c r="C145" s="17">
+        <v>2</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>899</v>
+      </c>
+      <c r="H145" s="6">
         <v>2.0000000000000001E-42</v>
-      </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="17">
-        <v>2</v>
-      </c>
-      <c r="E145" s="12" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F145" s="12" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>899</v>
       </c>
       <c r="I145" s="5" t="s">
         <v>17</v>
@@ -26513,28 +26518,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:23" s="5" customFormat="1" ht="60">
+    <row r="146" spans="1:23" s="5" customFormat="1" ht="195">
       <c r="A146" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B146" s="6"/>
+      <c r="C146" s="17">
+        <v>2</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="H146" s="6">
         <v>6.9999999999999997E-134</v>
-      </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="17">
-        <v>2</v>
-      </c>
-      <c r="E146" s="12" t="s">
-        <v>1292</v>
-      </c>
-      <c r="F146" s="12" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>711</v>
       </c>
       <c r="I146" s="5" t="s">
         <v>23</v>
@@ -26567,27 +26572,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="5" customFormat="1" ht="90">
+    <row r="147" spans="1:23" s="5" customFormat="1" ht="45">
       <c r="A147" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B147" s="5">
+      <c r="C147" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G147" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="H147" s="5">
         <v>0</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E147" s="13" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F147" s="13" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="H147" s="8" t="s">
-        <v>509</v>
       </c>
       <c r="I147" s="5" t="s">
         <v>17</v>
@@ -26627,28 +26632,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:23" s="5" customFormat="1" ht="30">
+    <row r="148" spans="1:23" s="5" customFormat="1" ht="180">
       <c r="A148" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B148" s="6"/>
+      <c r="C148" s="17">
+        <v>2</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="H148" s="6">
         <v>2.9999999999999998E-25</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="17">
-        <v>2</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F148" s="12" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>704</v>
       </c>
       <c r="I148" s="5" t="s">
         <v>144</v>
@@ -26681,28 +26686,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:23" s="5" customFormat="1" ht="45">
+    <row r="149" spans="1:23" s="5" customFormat="1" ht="90">
       <c r="A149" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="4"/>
+      <c r="C149" s="16">
+        <v>3</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="H149" s="4">
         <v>7.0000000000000003E-77</v>
-      </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="16">
-        <v>3</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F149" s="10" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="I149" s="3" t="s">
         <v>3</v>
@@ -26746,24 +26751,24 @@
       <c r="A150" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="4"/>
+      <c r="C150" s="16">
+        <v>2</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="H150" s="4">
         <v>8.9999999999999996E-7</v>
-      </c>
-      <c r="C150" s="4"/>
-      <c r="D150" s="16">
-        <v>2</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F150" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="H150" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>377</v>
@@ -26801,28 +26806,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:23" s="5" customFormat="1">
+    <row r="151" spans="1:23" s="5" customFormat="1" ht="105">
       <c r="A151" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="4"/>
+      <c r="C151" s="16">
+        <v>3</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G151" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" s="4">
         <v>1.0000000000000001E-33</v>
-      </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="16">
-        <v>3</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F151" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H151" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>23</v>
@@ -26860,28 +26865,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:23" s="5" customFormat="1" ht="45">
+    <row r="152" spans="1:23" s="5" customFormat="1" ht="75">
       <c r="A152" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B152" s="6"/>
+      <c r="C152" s="17">
+        <v>2</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="H152" s="6">
         <v>3.9999999999999998E-7</v>
-      </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="17">
-        <v>2</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F152" s="12" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>664</v>
       </c>
       <c r="I152" s="5" t="s">
         <v>17</v>
@@ -26921,24 +26926,24 @@
       <c r="A153" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="4"/>
+      <c r="C153" s="16">
+        <v>3</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H153" s="4">
         <v>2E-14</v>
-      </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="16">
-        <v>3</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F153" s="10" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H153" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="I153" s="3" t="s">
         <v>210</v>
@@ -26982,24 +26987,24 @@
       <c r="A154" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B154" s="6">
+      <c r="B154" s="6"/>
+      <c r="C154" s="17">
+        <v>3</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H154" s="6">
         <v>2.0000000000000002E-30</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="17">
-        <v>3</v>
-      </c>
-      <c r="E154" s="12" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F154" s="12" t="s">
-        <v>1245</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H154" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="I154" s="5" t="s">
         <v>17</v>
@@ -27035,28 +27040,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:23" s="5" customFormat="1">
+    <row r="155" spans="1:23" s="5" customFormat="1" ht="105">
       <c r="A155" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B155" s="6"/>
+      <c r="C155" s="17">
+        <v>4</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="G155" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="H155" s="6">
         <v>5.0000000000000002E-26</v>
-      </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="17">
-        <v>4</v>
-      </c>
-      <c r="E155" s="12" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>911</v>
       </c>
       <c r="I155" s="5" t="s">
         <v>17</v>
@@ -27092,28 +27097,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:23" s="5" customFormat="1" ht="225">
+    <row r="156" spans="1:23" s="5" customFormat="1" ht="30">
       <c r="A156" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="4"/>
+      <c r="C156" s="16">
+        <v>5</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="H156" s="4">
         <v>1E-13</v>
-      </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="16">
-        <v>5</v>
-      </c>
-      <c r="E156" s="10" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F156" s="10" t="s">
-        <v>1197</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>761</v>
       </c>
       <c r="I156" s="3" t="s">
         <v>23</v>
@@ -27147,28 +27152,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:23" s="5" customFormat="1" ht="165">
+    <row r="157" spans="1:23" s="5" customFormat="1" ht="45">
       <c r="A157" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="4"/>
+      <c r="C157" s="16">
+        <v>1</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="H157" s="4">
         <v>2.0000000000000001E-32</v>
-      </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="16">
-        <v>1</v>
-      </c>
-      <c r="E157" s="10" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F157" s="10" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="H157" s="3" t="s">
-        <v>934</v>
       </c>
       <c r="I157" s="3" t="s">
         <v>23</v>
@@ -27206,28 +27211,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:23" s="5" customFormat="1" ht="60">
+    <row r="158" spans="1:23" s="5" customFormat="1" ht="105">
       <c r="A158" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="4"/>
+      <c r="C158" s="16">
+        <v>2</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="H158" s="4">
         <v>4.0000000000000002E-61</v>
-      </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="16">
-        <v>2</v>
-      </c>
-      <c r="E158" s="10" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F158" s="10" t="s">
-        <v>1157</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="H158" s="3" t="s">
-        <v>922</v>
       </c>
       <c r="I158" s="3" t="s">
         <v>17</v>
@@ -27265,28 +27270,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:23" s="5" customFormat="1" ht="135">
+    <row r="159" spans="1:23" s="5" customFormat="1" ht="30">
       <c r="A159" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="4"/>
+      <c r="C159" s="16">
+        <v>2</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H159" s="4">
         <v>4.0000000000000001E-8</v>
-      </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="16">
-        <v>2</v>
-      </c>
-      <c r="E159" s="10" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F159" s="10" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H159" s="3" t="s">
-        <v>1024</v>
       </c>
       <c r="I159" s="3" t="s">
         <v>17</v>
@@ -27324,28 +27329,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:23" s="5" customFormat="1" ht="120">
+    <row r="160" spans="1:23" s="5" customFormat="1" ht="210">
       <c r="A160" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="B160" s="6">
+      <c r="B160" s="6"/>
+      <c r="C160" s="17">
+        <v>5</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="G160" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="H160" s="6">
         <v>1E-46</v>
-      </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="17">
-        <v>5</v>
-      </c>
-      <c r="E160" s="12" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F160" s="12" t="s">
-        <v>1235</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="H160" s="5" t="s">
-        <v>618</v>
       </c>
       <c r="I160" s="5" t="s">
         <v>17</v>
@@ -27378,28 +27383,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:23" s="5" customFormat="1" ht="30">
+    <row r="161" spans="1:23" s="5" customFormat="1">
       <c r="A161" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="4"/>
+      <c r="C161" s="16">
+        <v>3</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H161" s="4">
         <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="C161" s="4"/>
-      <c r="D161" s="16">
-        <v>3</v>
-      </c>
-      <c r="E161" s="10" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F161" s="10" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="I161" s="3" t="s">
         <v>17</v>
@@ -27437,28 +27442,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:23" s="5" customFormat="1" ht="30">
+    <row r="162" spans="1:23" s="5" customFormat="1" ht="300">
       <c r="A162" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B162" s="6">
+      <c r="B162" s="6"/>
+      <c r="C162" s="17">
+        <v>2</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G162" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H162" s="6">
         <v>4.0000000000000002E-172</v>
-      </c>
-      <c r="C162" s="6"/>
-      <c r="D162" s="17">
-        <v>2</v>
-      </c>
-      <c r="E162" s="12" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F162" s="12" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G162" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="H162" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="I162" s="5" t="s">
         <v>315</v>
@@ -27491,28 +27496,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:23" s="5" customFormat="1" ht="90">
+    <row r="163" spans="1:23" s="5" customFormat="1" ht="105">
       <c r="A163" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B163" s="6">
+      <c r="B163" s="6"/>
+      <c r="C163" s="17">
+        <v>3</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H163" s="6">
         <v>9.9999999999999992E-66</v>
-      </c>
-      <c r="C163" s="6"/>
-      <c r="D163" s="17">
-        <v>3</v>
-      </c>
-      <c r="E163" s="12" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F163" s="12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G163" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H163" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="I163" s="5" t="s">
         <v>17</v>
@@ -27548,28 +27553,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:23" s="5" customFormat="1" ht="120">
+    <row r="164" spans="1:23" s="5" customFormat="1" ht="105">
       <c r="A164" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="4"/>
+      <c r="C164" s="16">
+        <v>2</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H164" s="4">
         <v>4.9999999999999997E-12</v>
-      </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="16">
-        <v>2</v>
-      </c>
-      <c r="E164" s="10" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F164" s="10" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H164" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="I164" s="3" t="s">
         <v>17</v>
@@ -27609,28 +27614,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:23" s="5" customFormat="1" ht="30">
+    <row r="165" spans="1:23" s="5" customFormat="1" ht="90">
       <c r="A165" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="B165" s="6">
+      <c r="B165" s="6"/>
+      <c r="C165" s="17">
+        <v>5</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="G165" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="H165" s="6">
         <v>3.0000000000000003E-29</v>
-      </c>
-      <c r="C165" s="6"/>
-      <c r="D165" s="17">
-        <v>5</v>
-      </c>
-      <c r="E165" s="12" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F165" s="12" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="H165" s="5" t="s">
-        <v>723</v>
       </c>
       <c r="I165" s="5" t="s">
         <v>144</v>
@@ -27667,24 +27672,24 @@
       <c r="A166" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="4"/>
+      <c r="C166" s="16">
+        <v>4</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H166" s="4">
         <v>4.9999999999999999E-132</v>
-      </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="16">
-        <v>4</v>
-      </c>
-      <c r="E166" s="10" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F166" s="10" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H166" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="I166" s="3" t="s">
         <v>23</v>
@@ -27724,26 +27729,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:23" s="5" customFormat="1" ht="45">
+    <row r="167" spans="1:23" s="5" customFormat="1" ht="30">
       <c r="A167" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B167" s="6"/>
+      <c r="C167" s="17">
+        <v>1</v>
+      </c>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="H167" s="6">
         <v>1.9999999999999999E-20</v>
-      </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="17">
-        <v>1</v>
-      </c>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12" t="s">
-        <v>1297</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="H167" s="5" t="s">
-        <v>904</v>
       </c>
       <c r="I167" s="5" t="s">
         <v>905</v>
@@ -27779,26 +27784,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:23" s="5" customFormat="1" ht="180">
+    <row r="168" spans="1:23" s="5" customFormat="1" ht="45">
       <c r="A168" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="B168" s="6">
+      <c r="B168" s="6"/>
+      <c r="C168" s="17">
+        <v>1</v>
+      </c>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="G168" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="H168" s="6">
         <v>8.9999999999999999E-10</v>
-      </c>
-      <c r="C168" s="6"/>
-      <c r="D168" s="17">
-        <v>1</v>
-      </c>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G168" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="H168" s="5" t="s">
-        <v>652</v>
       </c>
       <c r="I168" s="5" t="s">
         <v>23</v>
@@ -27834,26 +27839,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:23" s="5" customFormat="1">
+    <row r="169" spans="1:23" s="5" customFormat="1" ht="60">
       <c r="A169" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="4"/>
+      <c r="C169" s="16">
+        <v>2</v>
+      </c>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="H169" s="4">
         <v>5.0000000000000002E-11</v>
-      </c>
-      <c r="C169" s="4"/>
-      <c r="D169" s="16">
-        <v>2</v>
-      </c>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>928</v>
       </c>
       <c r="I169" s="3" t="s">
         <v>10</v>
@@ -27897,20 +27902,20 @@
       <c r="A170" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="B170" s="6">
+      <c r="B170" s="6"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="G170" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="H170" s="6">
         <v>8.0000000000000004E-32</v>
-      </c>
-      <c r="C170" s="6"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12" t="s">
-        <v>1223</v>
-      </c>
-      <c r="G170" s="8" t="s">
-        <v>955</v>
-      </c>
-      <c r="H170" s="8" t="s">
-        <v>583</v>
       </c>
       <c r="I170" s="5" t="s">
         <v>17</v>
@@ -27951,20 +27956,20 @@
       <c r="A171" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="B171" s="6">
+      <c r="B171" s="6"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="G171" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="H171" s="6">
         <v>3.0000000000000002E-33</v>
-      </c>
-      <c r="C171" s="6"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="H171" s="5" t="s">
-        <v>887</v>
       </c>
       <c r="I171" s="5" t="s">
         <v>17</v>
@@ -28004,20 +28009,20 @@
       <c r="A172" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B172" s="6">
+      <c r="B172" s="6"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G172" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H172" s="6">
         <v>7.0000000000000004E-86</v>
-      </c>
-      <c r="C172" s="6"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G172" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H172" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="I172" s="5" t="s">
         <v>29</v>
@@ -28057,19 +28062,19 @@
       <c r="A173" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B173" s="5">
+      <c r="C173" s="17"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="G173" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="H173" s="5">
         <v>0</v>
-      </c>
-      <c r="D173" s="17"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G173" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="H173" s="5" t="s">
-        <v>479</v>
       </c>
       <c r="I173" s="5" t="s">
         <v>17</v>
@@ -28107,11 +28112,11 @@
     </row>
   </sheetData>
   <sortState ref="A2:W173">
+    <sortCondition ref="B2:B173"/>
+    <sortCondition ref="D2:D173"/>
     <sortCondition ref="C2:C173"/>
-    <sortCondition ref="E2:E173"/>
-    <sortCondition ref="D2:D173"/>
   </sortState>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
